--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.244</v>
+        <v>0.401</v>
       </c>
       <c r="D4" t="n">
-        <v>306.67</v>
+        <v>1115.15</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.182</v>
+        <v>0.466</v>
       </c>
       <c r="D5" t="n">
-        <v>550</v>
+        <v>2018.18</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.057</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.174</v>
+        <v>0.195</v>
       </c>
       <c r="D6" t="n">
-        <v>205.26</v>
+        <v>786.36</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.333943376899697</v>
+        <v>1.413882093387656</v>
       </c>
       <c r="C4" t="n">
-        <v>2.121936123352498</v>
+        <v>2.131862034439109</v>
       </c>
       <c r="D4" t="n">
-        <v>59.07</v>
+        <v>50.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.14742970746426</v>
+        <v>0.462795305610575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1829905576840311</v>
+        <v>0.2177917713762554</v>
       </c>
       <c r="G4" t="n">
-        <v>24.12</v>
+        <v>-52.94</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>-0.22</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.43502148938311</v>
+        <v>10.99258131985047</v>
       </c>
       <c r="C6" t="n">
-        <v>9.005734983854609</v>
+        <v>9.317206058089253</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.7</v>
+        <v>-15.24</v>
       </c>
       <c r="E6" t="n">
-        <v>1.546207707803482</v>
+        <v>1.164646550410791</v>
       </c>
       <c r="F6" t="n">
-        <v>1.282716193723377</v>
+        <v>1.326000287603317</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.04</v>
+        <v>13.85</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.033</v>
+        <v>0.418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.401</v>
+        <v>0.373</v>
       </c>
       <c r="D4" t="n">
-        <v>1115.15</v>
+        <v>-10.77</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.022</v>
+        <v>0.467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.466</v>
+        <v>0.372</v>
       </c>
       <c r="D5" t="n">
-        <v>2018.18</v>
+        <v>-20.34</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.022</v>
+        <v>0.388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195</v>
+        <v>0.277</v>
       </c>
       <c r="D6" t="n">
-        <v>786.36</v>
+        <v>-28.61</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.413882093387656</v>
+        <v>1.417465875507332</v>
       </c>
       <c r="C4" t="n">
-        <v>2.131862034439109</v>
+        <v>2.113490904099308</v>
       </c>
       <c r="D4" t="n">
-        <v>50.78</v>
+        <v>49.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.462795305610575</v>
+        <v>0.277808550257521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2177917713762554</v>
+        <v>0.310581230682575</v>
       </c>
       <c r="G4" t="n">
-        <v>-52.94</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>42.655</v>
       </c>
       <c r="C5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.22</v>
+        <v>-6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.99258131985047</v>
+        <v>11.09950153121507</v>
       </c>
       <c r="C6" t="n">
-        <v>9.317206058089253</v>
+        <v>9.497132854663205</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.24</v>
+        <v>-14.44</v>
       </c>
       <c r="E6" t="n">
-        <v>1.164646550410791</v>
+        <v>1.325082479025838</v>
       </c>
       <c r="F6" t="n">
-        <v>1.326000287603317</v>
+        <v>1.122037563164259</v>
       </c>
       <c r="G6" t="n">
-        <v>13.85</v>
+        <v>-15.32</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
